--- a/Documentation/CJFAS/Tables/Table 1.xlsx
+++ b/Documentation/CJFAS/Tables/Table 1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\klankowicz\Documents\GitHub\Atlantic-Cod-Habitat-VAST\Documentation\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\klankowicz\Documents\GitHub\Atlantic-Cod-Habitat-VAST\Documentation\CJFAS\Tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CAA6E12-01CE-4A68-A354-8BF47FCEB902}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82A60D65-827A-4275-8231-D7EEA68697A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-34560" yWindow="315" windowWidth="28800" windowHeight="15285" xr2:uid="{8FD28BFA-6A28-45E1-866E-05F0F56182D0}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{8FD28BFA-6A28-45E1-866E-05F0F56182D0}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="65">
   <si>
     <t>Survey</t>
   </si>
@@ -222,6 +222,15 @@
   </si>
   <si>
     <t>Undefined, assumed</t>
+  </si>
+  <si>
+    <t>Included</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>No</t>
   </si>
 </sst>
 </file>
@@ -277,9 +286,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -317,7 +326,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -423,7 +432,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -565,7 +574,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -573,10 +582,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80E64846-F5F9-416A-83B4-996C0D854D07}">
-  <dimension ref="A1:G12"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -590,7 +599,7 @@
     <col min="7" max="7" width="21.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -612,8 +621,11 @@
       <c r="G1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -635,8 +647,11 @@
       <c r="G2" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H2" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>8</v>
       </c>
@@ -658,8 +673,11 @@
       <c r="G3" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H3" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>9</v>
       </c>
@@ -681,8 +699,11 @@
       <c r="G4" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H4" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>32</v>
       </c>
@@ -704,8 +725,11 @@
       <c r="G5" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H5" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>33</v>
       </c>
@@ -727,8 +751,11 @@
       <c r="G6" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H6" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>45</v>
       </c>
@@ -750,8 +777,11 @@
       <c r="G7" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H7" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>49</v>
       </c>
@@ -773,8 +803,11 @@
       <c r="G8" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H8" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>54</v>
       </c>
@@ -796,8 +829,11 @@
       <c r="G9" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H9" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>40</v>
       </c>
@@ -819,8 +855,11 @@
       <c r="G10" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H10" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>36</v>
       </c>
@@ -842,8 +881,11 @@
       <c r="G11" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H11" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>22</v>
       </c>
@@ -864,6 +906,9 @@
       </c>
       <c r="G12" t="s">
         <v>28</v>
+      </c>
+      <c r="H12" t="s">
+        <v>64</v>
       </c>
     </row>
   </sheetData>
